--- a/assets/slides/acct3210/S4/nonlinearexample.xlsx
+++ b/assets/slides/acct3210/S4/nonlinearexample.xlsx
@@ -1,115 +1,176 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cahalcaomh/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ahmlaoibhtighe/ArthurHowardMorris.github.io/assets/slides/acct3210/S4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B1F0EAB-2856-9347-95BD-FE0439B8FB0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCF2BC3B-06AA-0B43-8193-62E62EF8EAC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21600" yWindow="500" windowWidth="64000" windowHeight="35500" activeTab="5" xr2:uid="{3FBB5B57-5103-AD40-89B4-550556BE03F1}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20940" xr2:uid="{3FBB5B57-5103-AD40-89B4-550556BE03F1}"/>
   </bookViews>
   <sheets>
-    <sheet name="Answer Report 1" sheetId="11" r:id="rId1"/>
-    <sheet name="q1 q2 producer" sheetId="4" r:id="rId2"/>
-    <sheet name="Answer Report 2" sheetId="12" r:id="rId3"/>
-    <sheet name="q1 producer" sheetId="10" r:id="rId4"/>
-    <sheet name="Answer Report 3" sheetId="13" r:id="rId5"/>
-    <sheet name="q2 producer" sheetId="9" r:id="rId6"/>
+    <sheet name="q1q2 blank" sheetId="14" r:id="rId1"/>
+    <sheet name="q1 q2" sheetId="4" r:id="rId2"/>
+    <sheet name="Answer Report q1q2" sheetId="11" r:id="rId3"/>
+    <sheet name="q1 blank" sheetId="15" r:id="rId4"/>
+    <sheet name="q1" sheetId="10" r:id="rId5"/>
+    <sheet name="Answer Report q1" sheetId="12" r:id="rId6"/>
+    <sheet name="q2 blank" sheetId="16" r:id="rId7"/>
+    <sheet name="q2" sheetId="9" r:id="rId8"/>
+    <sheet name="Answer Report q2" sheetId="13" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_adj" localSheetId="3" hidden="1">'q1 producer'!$B$3:$C$3</definedName>
-    <definedName name="solver_adj" localSheetId="1" hidden="1">'q1 q2 producer'!$B$3:$D$3</definedName>
-    <definedName name="solver_adj" localSheetId="5" hidden="1">'q2 producer'!$B$3:$C$3</definedName>
+    <definedName name="solver_adj" localSheetId="4" hidden="1">'q1'!$B$3:$C$3</definedName>
+    <definedName name="solver_adj" localSheetId="3" hidden="1">'q1 blank'!$B$3:$C$3</definedName>
+    <definedName name="solver_adj" localSheetId="1" hidden="1">'q1 q2'!$B$3:$D$3</definedName>
+    <definedName name="solver_adj" localSheetId="7" hidden="1">'q2'!$B$3:$C$3</definedName>
+    <definedName name="solver_adj" localSheetId="6" hidden="1">'q2 blank'!$B$3:$C$3</definedName>
+    <definedName name="solver_cvg" localSheetId="4" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="3" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
-    <definedName name="solver_cvg" localSheetId="5" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="7" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="6" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_drv" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_eng" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="4" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
-    <definedName name="solver_itr" localSheetId="5" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="3" hidden="1">'q1 producer'!$B$12</definedName>
-    <definedName name="solver_lhs1" localSheetId="1" hidden="1">'q1 q2 producer'!$B$12</definedName>
-    <definedName name="solver_lhs1" localSheetId="5" hidden="1">'q2 producer'!$B$12</definedName>
+    <definedName name="solver_itr" localSheetId="7" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="6" hidden="1">2147483647</definedName>
+    <definedName name="solver_lhs1" localSheetId="4" hidden="1">'q1'!$B$12</definedName>
+    <definedName name="solver_lhs1" localSheetId="3" hidden="1">'q1 blank'!$B$12</definedName>
+    <definedName name="solver_lhs1" localSheetId="1" hidden="1">'q1 q2'!$B$12</definedName>
+    <definedName name="solver_lhs1" localSheetId="7" hidden="1">'q2'!$B$12</definedName>
+    <definedName name="solver_lhs1" localSheetId="6" hidden="1">'q2 blank'!$B$12</definedName>
+    <definedName name="solver_lin" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_lin" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_lin" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_lin" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_lin" localSheetId="7" hidden="1">2</definedName>
+    <definedName name="solver_lin" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_mip" localSheetId="4" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
-    <definedName name="solver_mip" localSheetId="5" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="7" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="6" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="4" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="3" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
-    <definedName name="solver_mni" localSheetId="5" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="7" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="6" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="4" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="3" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
-    <definedName name="solver_mrt" localSheetId="5" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="7" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="6" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_msl" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="7" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_neg" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="4" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
-    <definedName name="solver_nod" localSheetId="5" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="7" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="6" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_num" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_num" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_num" localSheetId="5" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="3" hidden="1">'q1 producer'!$B$8</definedName>
-    <definedName name="solver_opt" localSheetId="1" hidden="1">'q1 q2 producer'!$B$8</definedName>
-    <definedName name="solver_opt" localSheetId="5" hidden="1">'q2 producer'!$B$8</definedName>
+    <definedName name="solver_num" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_num" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="4" hidden="1">'q1'!$B$8</definedName>
+    <definedName name="solver_opt" localSheetId="3" hidden="1">'q1 blank'!$B$8</definedName>
+    <definedName name="solver_opt" localSheetId="1" hidden="1">'q1 q2'!$B$8</definedName>
+    <definedName name="solver_opt" localSheetId="7" hidden="1">'q2'!$B$8</definedName>
+    <definedName name="solver_opt" localSheetId="6" hidden="1">'q2 blank'!$B$8</definedName>
+    <definedName name="solver_pre" localSheetId="4" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="3" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
-    <definedName name="solver_pre" localSheetId="5" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="7" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="6" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_rbv" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_rel1" localSheetId="5" hidden="1">1</definedName>
-    <definedName name="solver_rhs1" localSheetId="3" hidden="1">'q1 producer'!$C$12</definedName>
-    <definedName name="solver_rhs1" localSheetId="1" hidden="1">'q1 q2 producer'!$C$12</definedName>
-    <definedName name="solver_rhs1" localSheetId="5" hidden="1">'q2 producer'!$C$12</definedName>
+    <definedName name="solver_rel1" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_rhs1" localSheetId="4" hidden="1">'q1'!$C$12</definedName>
+    <definedName name="solver_rhs1" localSheetId="3" hidden="1">'q1 blank'!$C$12</definedName>
+    <definedName name="solver_rhs1" localSheetId="1" hidden="1">'q1 q2'!$C$12</definedName>
+    <definedName name="solver_rhs1" localSheetId="7" hidden="1">'q2'!$C$12</definedName>
+    <definedName name="solver_rhs1" localSheetId="6" hidden="1">'q2 blank'!$C$12</definedName>
+    <definedName name="solver_rlx" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_rlx" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="7" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="4" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
-    <definedName name="solver_rsd" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="7" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="6" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_scl" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_sho" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_sho" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="7" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="4" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="3" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
-    <definedName name="solver_ssz" localSheetId="5" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="7" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="6" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="4" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
-    <definedName name="solver_tim" localSheetId="5" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="7" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="6" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="4" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="3" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
-    <definedName name="solver_tol" localSheetId="5" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="7" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="6" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_typ" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_val" localSheetId="4" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
-    <definedName name="solver_val" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="7" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="6" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_ver" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_ver" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_ver" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_ver" localSheetId="7" hidden="1">2</definedName>
+    <definedName name="solver_ver" localSheetId="6" hidden="1">2</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -130,7 +191,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="66">
   <si>
     <t>Choice Variables</t>
   </si>
@@ -316,6 +377,18 @@
   </si>
   <si>
     <t>Solution Time: 213.523 Seconds.</t>
+  </si>
+  <si>
+    <t>&lt;-- these cells hold each part of the profit equation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;--this cell sums the row above </t>
+  </si>
+  <si>
+    <t>&lt;-- these are the prices/costs</t>
+  </si>
+  <si>
+    <t>&lt;-- the formula will point to the guess above, the value will be passed into the solver</t>
   </si>
 </sst>
 </file>
@@ -416,21 +489,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -449,9 +519,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -489,7 +559,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -595,7 +665,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -737,13 +807,298 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66A6EBC2-BD46-4744-84E0-20538EAF02D7}">
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ECD38B9-F0E6-DC4E-B0E9-043FC08D003B}">
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2">
+        <v>196.42855080780501</v>
+      </c>
+      <c r="C3" s="2">
+        <v>171.42858441782155</v>
+      </c>
+      <c r="D3" s="2">
+        <v>199.99999999999997</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6">
+        <v>275</v>
+      </c>
+      <c r="C6">
+        <v>300</v>
+      </c>
+      <c r="D6">
+        <v>-100</v>
+      </c>
+      <c r="E6">
+        <v>-140</v>
+      </c>
+      <c r="F6">
+        <v>-175</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7">
+        <f>B6*B3</f>
+        <v>54017.85147214638</v>
+      </c>
+      <c r="C7">
+        <f>C6*C3</f>
+        <v>51428.575325346465</v>
+      </c>
+      <c r="D7">
+        <f>D6*D3</f>
+        <v>-19999.999999999996</v>
+      </c>
+      <c r="E7">
+        <f>E6*((B3^2)/$D$3)</f>
+        <v>-27008.922900718106</v>
+      </c>
+      <c r="F7">
+        <f>F6*(C3^2)/$D$3</f>
+        <v>-25714.289611060904</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3">
+        <f>SUM(B7:F7)</f>
+        <v>32723.214285713828</v>
+      </c>
+      <c r="C8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4">
+        <f>D3</f>
+        <v>199.99999999999997</v>
+      </c>
+      <c r="C12" s="4">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1625E332-94D7-5848-934A-23849DC0CF99}">
   <dimension ref="A1:G28"/>
   <sheetViews>
@@ -761,50 +1116,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="6"/>
+      <c r="A6" s="5"/>
       <c r="B6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="6"/>
+      <c r="A7" s="5"/>
       <c r="B7" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="6"/>
+      <c r="A8" s="5"/>
       <c r="B8" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>20</v>
       </c>
     </row>
@@ -829,30 +1184,30 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="7" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="6">
         <v>32723.214285693972</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="6">
         <v>32723.214285693972</v>
       </c>
     </row>
@@ -862,70 +1217,70 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="F20" s="7" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D21" s="8">
         <v>196.4284560725643</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E21" s="8">
         <v>196.4284560725643</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="F21" s="8" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D22" s="8">
         <v>171.42845928358139</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E22" s="8">
         <v>171.42845928358139</v>
       </c>
-      <c r="F22" s="9" t="s">
+      <c r="F22" s="8" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D23" s="6">
         <v>200</v>
       </c>
-      <c r="E23" s="10">
+      <c r="E23" s="6">
         <v>200</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="F23" s="6" t="s">
         <v>38</v>
       </c>
     </row>
@@ -935,42 +1290,42 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="E27" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F27" s="8" t="s">
+      <c r="F27" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G27" s="8" t="s">
+      <c r="G27" s="7" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D28" s="10">
+      <c r="D28" s="6">
         <v>200</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E28" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="F28" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G28" s="7">
+      <c r="G28" s="6">
         <v>0</v>
       </c>
     </row>
@@ -979,132 +1334,86 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ECD38B9-F0E6-DC4E-B0E9-043FC08D003B}">
-  <dimension ref="A1:G12"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BF8FE94-E2C5-6B40-B060-BCB62623B9C3}">
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="B12" sqref="B12:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
         <v>2</v>
       </c>
+      <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2">
-        <v>196.4284560725643</v>
-      </c>
-      <c r="C3" s="2">
-        <v>171.42845928358139</v>
-      </c>
-      <c r="D3" s="2">
-        <v>200</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="5" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="5" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="5" t="s">
+      <c r="C5" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="5" t="s">
+      <c r="E5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="5">
-        <v>275</v>
-      </c>
-      <c r="C6" s="5">
-        <v>300</v>
-      </c>
-      <c r="D6" s="5">
-        <v>-100</v>
-      </c>
-      <c r="E6">
-        <v>-140</v>
-      </c>
-      <c r="F6">
-        <v>-175</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E6" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="5">
-        <f>B6*B3</f>
-        <v>54017.825419955181</v>
-      </c>
-      <c r="C7" s="5">
-        <f>C6*C3</f>
-        <v>51428.537785074419</v>
-      </c>
-      <c r="D7" s="5">
-        <f>D6*D3</f>
-        <v>-20000</v>
-      </c>
-      <c r="E7">
-        <f>E6*((B3^2)/$D$3)</f>
-        <v>-27008.896848535926</v>
-      </c>
-      <c r="F7">
-        <f>F6*(C3^2)/$D$3</f>
-        <v>-25714.252070799706</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E7" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="3">
-        <f>SUM(B7:F7)</f>
-        <v>32723.214285693972</v>
-      </c>
-      <c r="C8" s="5"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B8" s="3"/>
+      <c r="C8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>6</v>
       </c>
@@ -1112,7 +1421,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>7</v>
       </c>
@@ -1120,24 +1429,151 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="4">
-        <f>D3</f>
-        <v>200</v>
-      </c>
-      <c r="C12" s="4">
-        <v>200</v>
-      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CECB8A9F-3997-D946-88D3-FA374B675BAB}">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2">
+        <v>196.4284560725643</v>
+      </c>
+      <c r="C3" s="2">
+        <v>200</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6">
+        <v>275</v>
+      </c>
+      <c r="C6">
+        <v>-100</v>
+      </c>
+      <c r="D6">
+        <v>-140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7">
+        <f>B6*B3</f>
+        <v>54017.825419955181</v>
+      </c>
+      <c r="C7">
+        <f>C6*C3</f>
+        <v>-20000</v>
+      </c>
+      <c r="D7">
+        <f>D6*((B3^2)/$C$3)</f>
+        <v>-27008.896848535926</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3">
+        <f>SUM(B7:D7)</f>
+        <v>7008.9285714192556</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4">
+        <f>C3</f>
+        <v>200</v>
+      </c>
+      <c r="C12" s="4">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B688A48B-5709-CD43-92FD-486B92EFA0FE}">
   <dimension ref="A1:G27"/>
   <sheetViews>
@@ -1155,50 +1591,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="6"/>
+      <c r="A6" s="5"/>
       <c r="B6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="6"/>
+      <c r="A7" s="5"/>
       <c r="B7" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="6"/>
+      <c r="A8" s="5"/>
       <c r="B8" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1223,30 +1659,30 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="7" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="6">
         <v>7008.9285714192556</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="6">
         <v>7008.9285714192556</v>
       </c>
     </row>
@@ -1256,53 +1692,53 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="F20" s="7" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D21" s="8">
         <v>196.4284560725643</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E21" s="8">
         <v>196.4284560725643</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="F21" s="8" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="6">
         <v>200</v>
       </c>
-      <c r="E22" s="10">
+      <c r="E22" s="6">
         <v>200</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F22" s="6" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1312,42 +1748,42 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E26" s="8" t="s">
+      <c r="E26" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F26" s="8" t="s">
+      <c r="F26" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G26" s="8" t="s">
+      <c r="G26" s="7" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D27" s="6">
         <v>200</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="E27" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="F27" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G27" s="7">
+      <c r="G27" s="6">
         <v>0</v>
       </c>
     </row>
@@ -1356,12 +1792,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CECB8A9F-3997-D946-88D3-FA374B675BAB}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBC4989E-81B5-4149-99F9-78D02E605AA4}">
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:E7"/>
+      <selection activeCell="B12" sqref="B12:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1373,7 +1809,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -1385,32 +1821,28 @@
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2">
-        <v>196.4284560725643</v>
-      </c>
-      <c r="C3" s="2">
-        <v>200</v>
-      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
       <c r="D3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="5" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="5" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="5" t="s">
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1418,40 +1850,25 @@
       <c r="A6" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="5">
-        <v>275</v>
-      </c>
-      <c r="C6" s="5">
-        <v>-100</v>
-      </c>
-      <c r="D6">
-        <v>-140</v>
+      <c r="E6" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="5">
-        <f>B6*B3</f>
-        <v>54017.825419955181</v>
-      </c>
-      <c r="C7" s="5">
-        <f>C6*C3</f>
-        <v>-20000</v>
-      </c>
-      <c r="D7">
-        <f>D6*((B3^2)/$C$3)</f>
-        <v>-27008.896848535926</v>
+      <c r="E7" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="3">
-        <f>SUM(B7:D7)</f>
-        <v>7008.9285714192556</v>
+      <c r="B8" s="3"/>
+      <c r="C8" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -1474,20 +1891,149 @@
       <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="4">
-        <f>C3</f>
-        <v>200</v>
-      </c>
-      <c r="C12" s="4">
-        <v>200</v>
-      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B82F6BE-61B6-EB4B-A3C9-2A4B139BFA7F}">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2">
+        <v>171.42856948109883</v>
+      </c>
+      <c r="C3" s="2">
+        <v>200</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6">
+        <v>300</v>
+      </c>
+      <c r="C6">
+        <v>-100</v>
+      </c>
+      <c r="D6">
+        <v>-175</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7">
+        <f>B6*B3</f>
+        <v>51428.570844329653</v>
+      </c>
+      <c r="C7">
+        <f>C6*C3</f>
+        <v>-20000</v>
+      </c>
+      <c r="D7">
+        <f>D6*(B3^2)/$C$3</f>
+        <v>-25714.285130043936</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3">
+        <f>SUM(B7:D7)</f>
+        <v>5714.2857142857174</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4">
+        <f>C3</f>
+        <v>200</v>
+      </c>
+      <c r="C12" s="4">
+        <v>200</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2312DBDA-BF9B-164B-8CF5-FDBB40794646}">
   <dimension ref="A1:G27"/>
   <sheetViews>
@@ -1505,50 +2051,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="6"/>
+      <c r="A6" s="5"/>
       <c r="B6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="6"/>
+      <c r="A7" s="5"/>
       <c r="B7" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="6"/>
+      <c r="A8" s="5"/>
       <c r="B8" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1573,30 +2119,30 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="7" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="6">
         <v>5714.2857142747125</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="6">
         <v>5714.2857142747125</v>
       </c>
     </row>
@@ -1606,53 +2152,53 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="F20" s="7" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D21" s="8">
         <v>171.42845928358139</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E21" s="8">
         <v>171.42845928358139</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="F21" s="8" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="6">
         <v>200</v>
       </c>
-      <c r="E22" s="10">
+      <c r="E22" s="6">
         <v>200</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F22" s="6" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1662,175 +2208,43 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E26" s="8" t="s">
+      <c r="E26" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F26" s="8" t="s">
+      <c r="F26" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G26" s="8" t="s">
+      <c r="G26" s="7" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D27" s="6">
         <v>200</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="E27" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="F27" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G27" s="7">
+      <c r="G27" s="6">
         <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B82F6BE-61B6-EB4B-A3C9-2A4B139BFA7F}">
-  <dimension ref="A1:E12"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2">
-        <v>171.42845928358139</v>
-      </c>
-      <c r="C3" s="2">
-        <v>200</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" s="5">
-        <v>300</v>
-      </c>
-      <c r="C6" s="5">
-        <v>-100</v>
-      </c>
-      <c r="D6">
-        <v>-175</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" s="5">
-        <f>B6*B3</f>
-        <v>51428.537785074419</v>
-      </c>
-      <c r="C7" s="5">
-        <f>C6*C3</f>
-        <v>-20000</v>
-      </c>
-      <c r="D7">
-        <f>D6*(B3^2)/$C$3</f>
-        <v>-25714.252070799706</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="3">
-        <f>SUM(B7:D7)</f>
-        <v>5714.2857142747125</v>
-      </c>
-      <c r="C8" s="5"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="4">
-        <f>C3</f>
-        <v>200</v>
-      </c>
-      <c r="C12" s="4">
-        <v>200</v>
       </c>
     </row>
   </sheetData>
